--- a/results/MA_strategys.xlsx
+++ b/results/MA_strategys.xlsx
@@ -461,23 +461,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sh600908</t>
+          <t>sh000001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-90</v>
+        <v>-52802.2</v>
       </c>
       <c r="C2" t="n">
-        <v>589</v>
+        <v>287265.6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.82</v>
+        <v>-17.47</v>
       </c>
       <c r="F2" t="n">
-        <v>116.63</v>
+        <v>95.02</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
